--- a/Homework-2/Topic.1.Introduction.EXCEL.V2.xlsx
+++ b/Homework-2/Topic.1.Introduction.EXCEL.V2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhrumindesai/Desktop/Stevens/BIA-652/Homework-2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36" yWindow="192" windowWidth="19020" windowHeight="8136" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="12" r:id="rId1"/>
@@ -12,7 +17,15 @@
     <sheet name="MATRIX" sheetId="10" r:id="rId3"/>
     <sheet name="RAW.Data" sheetId="13" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -338,8 +351,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,6 +831,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -864,12 +882,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -896,14 +914,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -930,6 +949,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1105,29 +1125,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A2:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="27.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="9">
         <f t="array" ref="B2:D6">LINEST(A10:A21,B10:C21,TRUE,TRUE)</f>
-        <v>0.61348794279489616</v>
+        <v>0.61348794279489627</v>
       </c>
       <c r="C2" s="9">
         <v>4.870424615443824E-2</v>
@@ -1142,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1150,23 +1170,23 @@
         <v>0.22005779283730761</v>
       </c>
       <c r="C3" s="9">
-        <v>5.4357827262875309E-2</v>
+        <v>5.4357827262875316E-2</v>
       </c>
       <c r="D3" s="3">
-        <v>4.928873780762971</v>
+        <v>4.9288737807629719</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="23.4">
+    <row r="4" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="10">
-        <v>0.46347249178791755</v>
+        <v>0.4634724917879175</v>
       </c>
       <c r="C4" s="9">
-        <v>2.48445576756848</v>
+        <v>2.4844557675684804</v>
       </c>
       <c r="D4" s="2" t="e">
         <v>#N/A</v>
@@ -1176,12 +1196,12 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="9">
-        <v>3.8872679986078325</v>
+        <v>3.8872679986078311</v>
       </c>
       <c r="C5" s="6">
         <v>9</v>
@@ -1194,15 +1214,15 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="9">
-        <v>47.98848251762805</v>
+        <v>47.988482517628043</v>
       </c>
       <c r="C6" s="9">
-        <v>55.552684149038576</v>
+        <v>55.552684149038583</v>
       </c>
       <c r="D6" s="2" t="e">
         <v>#N/A</v>
@@ -1215,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24.6">
+    <row r="8" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1226,7 +1246,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
@@ -1237,7 +1257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="23.4">
+    <row r="10" spans="1:11" ht="23" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>30.67</v>
       </c>
@@ -1248,7 +1268,7 @@
         <v>7.1070000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="23.4">
+    <row r="11" spans="1:11" ht="23" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>28.28</v>
       </c>
@@ -1259,7 +1279,7 @@
         <v>6.3730000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="23.4">
+    <row r="12" spans="1:11" ht="23" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>28.91</v>
       </c>
@@ -1270,7 +1290,7 @@
         <v>6.7960000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="23.4">
+    <row r="13" spans="1:11" ht="23" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>29.94</v>
       </c>
@@ -1281,7 +1301,7 @@
         <v>9.2080000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="23.4">
+    <row r="14" spans="1:11" ht="23" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>30.82</v>
       </c>
@@ -1292,7 +1312,7 @@
         <v>14.792</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="23.4">
+    <row r="15" spans="1:11" ht="23" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>38.979999999999997</v>
       </c>
@@ -1303,7 +1323,7 @@
         <v>14.564</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="23.4">
+    <row r="16" spans="1:11" ht="23" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>35.020000000000003</v>
       </c>
@@ -1314,7 +1334,7 @@
         <v>11.964</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="23.4">
+    <row r="17" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>30.6</v>
       </c>
@@ -1325,7 +1345,7 @@
         <v>13.526</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="23.4">
+    <row r="18" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>32.11</v>
       </c>
@@ -1336,7 +1356,7 @@
         <v>12.656000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="23.4">
+    <row r="19" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>32.86</v>
       </c>
@@ -1347,7 +1367,7 @@
         <v>14.119</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="23.4">
+    <row r="20" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>35.42</v>
       </c>
@@ -1358,7 +1378,7 @@
         <v>16.690999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="23.4">
+    <row r="21" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>31.25</v>
       </c>
@@ -1376,27 +1396,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="27.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.2" thickBot="1">
+    <row r="1" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>40</v>
       </c>
@@ -1416,13 +1436,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21.6" thickTop="1">
+    <row r="2" spans="1:11" ht="22" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="33">
         <f t="array" ref="B2:D6">LINEST(A10:A21,B10:C21,TRUE,TRUE)</f>
-        <v>0.61348794279489616</v>
+        <v>0.61348794279489627</v>
       </c>
       <c r="C2" s="30">
         <v>4.870424615443824E-2</v>
@@ -1435,11 +1455,10 @@
       </c>
       <c r="G2" s="43">
         <f>B2</f>
-        <v>0.61348794279489616</v>
+        <v>0.61348794279489627</v>
       </c>
       <c r="H2" s="30">
-        <f>C2</f>
-        <v>4.870424615443824E-2</v>
+        <v>0.05</v>
       </c>
       <c r="I2" s="44">
         <f>D2</f>
@@ -1449,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
@@ -1457,10 +1476,10 @@
         <v>0.22005779283730761</v>
       </c>
       <c r="C3" s="12">
-        <v>5.4357827262875309E-2</v>
+        <v>5.4357827262875316E-2</v>
       </c>
       <c r="D3" s="13">
-        <v>4.928873780762971</v>
+        <v>4.9288737807629719</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="2"/>
@@ -1468,15 +1487,15 @@
       <c r="H3" s="37"/>
       <c r="I3" s="38"/>
     </row>
-    <row r="4" spans="1:11" ht="23.4">
+    <row r="4" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="16">
-        <v>0.46347249178791755</v>
+        <v>0.4634724917879175</v>
       </c>
       <c r="C4" s="12">
-        <v>2.48445576756848</v>
+        <v>2.4844557675684804</v>
       </c>
       <c r="D4" s="14" t="e">
         <v>#N/A</v>
@@ -1489,12 +1508,12 @@
       <c r="H4" s="37"/>
       <c r="I4" s="38"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="12">
-        <v>3.8872679986078325</v>
+        <v>3.8872679986078311</v>
       </c>
       <c r="C5" s="15">
         <v>9</v>
@@ -1512,18 +1531,18 @@
       <c r="H5" s="46"/>
       <c r="I5" s="47">
         <f>CORREL(A10:A21,H10:H21)</f>
-        <v>0.68078814016396993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="25.2" thickBot="1">
+        <v>0.6807607371170723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="26" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="24">
-        <v>47.98848251762805</v>
+        <v>47.988482517628043</v>
       </c>
       <c r="C6" s="24">
-        <v>55.552684149038576</v>
+        <v>55.552684149038583</v>
       </c>
       <c r="D6" s="25" t="e">
         <v>#N/A</v>
@@ -1539,13 +1558,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="22.2" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="35">
         <f>CORREL(A10:A21,D10:D21)</f>
-        <v>0.68078814016396993</v>
+        <v>0.68078814016396971</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="22" t="s">
@@ -1553,7 +1572,7 @@
       </c>
       <c r="I7" s="38"/>
     </row>
-    <row r="8" spans="1:11" ht="25.2" thickTop="1">
+    <row r="8" spans="1:11" ht="26" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1573,7 +1592,7 @@
       </c>
       <c r="I8" s="38"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
@@ -1595,7 +1614,7 @@
       </c>
       <c r="I9" s="38"/>
     </row>
-    <row r="10" spans="1:11" ht="23.4">
+    <row r="10" spans="1:11" ht="23" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>30.67</v>
       </c>
@@ -1616,11 +1635,11 @@
       <c r="G10" s="39"/>
       <c r="H10" s="42">
         <f>$I$2+$H$2*B10+$G$2*C10</f>
-        <v>28.971120592425386</v>
+        <v>29.047310918544419</v>
       </c>
       <c r="I10" s="38"/>
     </row>
-    <row r="11" spans="1:11" ht="23.4">
+    <row r="11" spans="1:11" ht="23" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>28.28</v>
       </c>
@@ -1641,11 +1660,11 @@
       <c r="G11" s="39"/>
       <c r="H11" s="42">
         <f t="shared" ref="H11:H21" si="2">$I$2+$H$2*B11+$G$2*C11</f>
-        <v>28.832527617802338</v>
+        <v>28.917010768532965</v>
       </c>
       <c r="I11" s="38"/>
     </row>
-    <row r="12" spans="1:11" ht="23.4">
+    <row r="12" spans="1:11" ht="23" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>28.91</v>
       </c>
@@ -1657,20 +1676,20 @@
       </c>
       <c r="D12" s="27">
         <f t="shared" si="0"/>
-        <v>29.369647220684875</v>
+        <v>29.369647220684879</v>
       </c>
       <c r="E12" s="28">
         <f t="shared" si="1"/>
-        <v>-0.45964722068487518</v>
+        <v>-0.45964722068487873</v>
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="42">
         <f t="shared" si="2"/>
-        <v>29.369647220684875</v>
+        <v>29.461516168335208</v>
       </c>
       <c r="I12" s="38"/>
     </row>
-    <row r="13" spans="1:11" ht="23.4">
+    <row r="13" spans="1:11" ht="23" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>29.94</v>
       </c>
@@ -1691,11 +1710,11 @@
       <c r="G13" s="39"/>
       <c r="H13" s="42">
         <f t="shared" si="2"/>
-        <v>31.165957738710016</v>
+        <v>31.266249086356495</v>
       </c>
       <c r="I13" s="38"/>
     </row>
-    <row r="14" spans="1:11" ht="23.4">
+    <row r="14" spans="1:11" ht="23" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>30.82</v>
       </c>
@@ -1716,11 +1735,11 @@
       <c r="G14" s="39"/>
       <c r="H14" s="42">
         <f t="shared" si="2"/>
-        <v>34.684212478970146</v>
+        <v>34.786965758923195</v>
       </c>
       <c r="I14" s="38"/>
     </row>
-    <row r="15" spans="1:11" ht="23.4">
+    <row r="15" spans="1:11" ht="23" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>38.979999999999997</v>
       </c>
@@ -1741,11 +1760,11 @@
       <c r="G15" s="39"/>
       <c r="H15" s="42">
         <f t="shared" si="2"/>
-        <v>34.627134446475452</v>
+        <v>34.732090507965964</v>
       </c>
       <c r="I15" s="38"/>
     </row>
-    <row r="16" spans="1:11" ht="23.4">
+    <row r="16" spans="1:11" ht="23" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>35.020000000000003</v>
       </c>
@@ -1766,11 +1785,11 @@
       <c r="G16" s="39"/>
       <c r="H16" s="42">
         <f t="shared" si="2"/>
-        <v>32.588857155203335</v>
+        <v>32.68202185669923</v>
       </c>
       <c r="I16" s="38"/>
     </row>
-    <row r="17" spans="1:9" ht="23.4">
+    <row r="17" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>30.6</v>
       </c>
@@ -1791,11 +1810,11 @@
       <c r="G17" s="39"/>
       <c r="H17" s="42">
         <f t="shared" si="2"/>
-        <v>33.157491352613462</v>
+        <v>33.240290023344855</v>
       </c>
       <c r="I17" s="38"/>
     </row>
-    <row r="18" spans="1:9" ht="23.4">
+    <row r="18" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>32.11</v>
       </c>
@@ -1807,20 +1826,20 @@
       </c>
       <c r="D18" s="27">
         <f t="shared" si="0"/>
-        <v>32.165936928530179</v>
+        <v>32.165936928530186</v>
       </c>
       <c r="E18" s="28">
         <f t="shared" si="1"/>
-        <v>-5.5936928530179841E-2</v>
+        <v>-5.5936928530186947E-2</v>
       </c>
       <c r="G18" s="39"/>
       <c r="H18" s="42">
         <f t="shared" si="2"/>
-        <v>32.165936928530179</v>
+        <v>32.236555513113302</v>
       </c>
       <c r="I18" s="38"/>
     </row>
-    <row r="19" spans="1:9" ht="23.4">
+    <row r="19" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>32.86</v>
       </c>
@@ -1832,20 +1851,20 @@
       </c>
       <c r="D19" s="27">
         <f t="shared" si="0"/>
-        <v>32.332906096522535</v>
+        <v>32.332906096522542</v>
       </c>
       <c r="E19" s="28">
         <f t="shared" si="1"/>
-        <v>0.52709390347746421</v>
+        <v>0.5270939034774571</v>
       </c>
       <c r="G19" s="39"/>
       <c r="H19" s="42">
         <f t="shared" si="2"/>
-        <v>32.332906096522535</v>
+        <v>32.38408837342223</v>
       </c>
       <c r="I19" s="38"/>
     </row>
-    <row r="20" spans="1:9" ht="23.4">
+    <row r="20" spans="1:9" ht="23" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>35.42</v>
       </c>
@@ -1866,11 +1885,11 @@
       <c r="G20" s="39"/>
       <c r="H20" s="42">
         <f t="shared" si="2"/>
-        <v>34.154318316163206</v>
+        <v>34.211979362290705</v>
       </c>
       <c r="I20" s="38"/>
     </row>
-    <row r="21" spans="1:9" ht="24" thickBot="1">
+    <row r="21" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>31.25</v>
       </c>
@@ -1882,20 +1901,20 @@
       </c>
       <c r="D21" s="27">
         <f t="shared" si="0"/>
-        <v>32.809890055899025</v>
+        <v>32.809890055899032</v>
       </c>
       <c r="E21" s="28">
         <f t="shared" si="1"/>
-        <v>-1.5598900558990252</v>
+        <v>-1.5598900558990323</v>
       </c>
       <c r="G21" s="40"/>
       <c r="H21" s="42">
         <f t="shared" si="2"/>
-        <v>32.809890055899025</v>
+        <v>32.866384923565519</v>
       </c>
       <c r="I21" s="41"/>
     </row>
-    <row r="22" spans="1:9" ht="21.6" thickTop="1"/>
+    <row r="22" spans="1:9" ht="22" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1903,29 +1922,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="N11" zoomScale="69" workbookViewId="0">
+      <selection activeCell="AF31" sqref="AD31:AF31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="27.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="4"/>
-    <col min="26" max="26" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" style="4"/>
+    <col min="26" max="26" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="25.2" thickBot="1">
+    <row r="1" spans="1:32" ht="26" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>40</v>
       </c>
@@ -1936,13 +1955,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="21.6" thickTop="1">
+    <row r="2" spans="1:32" ht="22" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="33">
         <f t="array" ref="B2:D6">LINEST(A10:A21,B10:C21,TRUE,TRUE)</f>
-        <v>0.61348794279489616</v>
+        <v>0.61348794279489627</v>
       </c>
       <c r="C2" s="30">
         <v>4.870424615443824E-2</v>
@@ -1967,7 +1986,7 @@
       </c>
       <c r="M2">
         <f>SQRT(I2)*$C$4</f>
-        <v>4.9288737807629834</v>
+        <v>4.9288737807629843</v>
       </c>
       <c r="N2" t="e">
         <f t="shared" ref="N2:N4" si="0">SQRT(J2)*$C$4</f>
@@ -1978,7 +1997,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
@@ -1986,10 +2005,10 @@
         <v>0.22005779283730761</v>
       </c>
       <c r="C3" s="12">
-        <v>5.4357827262875309E-2</v>
+        <v>5.4357827262875316E-2</v>
       </c>
       <c r="D3" s="13">
-        <v>4.928873780762971</v>
+        <v>4.9288737807629719</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="2"/>
@@ -2008,22 +2027,22 @@
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>5.4357827262875344E-2</v>
+        <v>5.4357827262875358E-2</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>6.035619586173719E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="23.4">
+        <v>6.0356195861737197E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="16">
-        <v>0.46347249178791755</v>
+        <v>0.4634724917879175</v>
       </c>
       <c r="C4" s="12">
-        <v>2.48445576756848</v>
+        <v>2.4844557675684804</v>
       </c>
       <c r="D4" s="14" t="e">
         <v>#N/A</v>
@@ -2047,19 +2066,19 @@
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>6.03561958617371E-2</v>
+        <v>6.0356195861737114E-2</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>0.22005779283730817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
+        <v>0.22005779283730822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="12">
-        <v>3.8872679986078325</v>
+        <v>3.8872679986078311</v>
       </c>
       <c r="C5" s="15">
         <v>9</v>
@@ -2072,15 +2091,15 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:32" ht="25.2" thickBot="1">
+    <row r="6" spans="1:32" ht="26" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="24">
-        <v>47.98848251762805</v>
+        <v>47.988482517628043</v>
       </c>
       <c r="C6" s="24">
-        <v>55.552684149038576</v>
+        <v>55.552684149038583</v>
       </c>
       <c r="D6" s="25" t="e">
         <v>#N/A</v>
@@ -2095,20 +2114,20 @@
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
     </row>
-    <row r="7" spans="1:32" ht="22.2" thickTop="1" thickBot="1">
+    <row r="7" spans="1:32" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="35">
         <f>CORREL(A10:A21,D10:D21)</f>
-        <v>0.68078814016396993</v>
+        <v>0.68078814016396971</v>
       </c>
       <c r="E7" s="95">
         <f>D7*D7</f>
-        <v>0.46347249178791716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="37.799999999999997" thickTop="1">
+        <v>0.46347249178791688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="38" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -2143,7 +2162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="21.6" thickBot="1">
+    <row r="9" spans="1:32" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
@@ -2161,7 +2180,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:32" ht="25.2" thickTop="1">
+    <row r="10" spans="1:32" ht="26" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>30.67</v>
       </c>
@@ -2200,7 +2219,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="24.6">
+    <row r="11" spans="1:32" ht="25" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>28.28</v>
       </c>
@@ -2243,7 +2262,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="25.2" thickBot="1">
+    <row r="12" spans="1:32" ht="26" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
         <v>28.91</v>
       </c>
@@ -2255,15 +2274,15 @@
       </c>
       <c r="D12" s="27">
         <f t="shared" si="3"/>
-        <v>29.369647220684875</v>
+        <v>29.369647220684879</v>
       </c>
       <c r="E12" s="28">
         <f t="shared" si="4"/>
-        <v>-0.45964722068487518</v>
+        <v>-0.45964722068487873</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="5"/>
-        <v>7.30090908646374</v>
+        <v>7.3009090864637205</v>
       </c>
       <c r="H12" s="51">
         <v>28.91</v>
@@ -2282,7 +2301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="24" thickTop="1">
+    <row r="13" spans="1:32" ht="24" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>29.94</v>
       </c>
@@ -2318,7 +2337,7 @@
         <v>9.2080000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="23.4">
+    <row r="14" spans="1:32" ht="23" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>30.82</v>
       </c>
@@ -2354,7 +2373,7 @@
         <v>14.792</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="23.4">
+    <row r="15" spans="1:32" ht="23" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>38.979999999999997</v>
       </c>
@@ -2390,7 +2409,7 @@
         <v>14.564</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="23.4">
+    <row r="16" spans="1:32" ht="23" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>35.020000000000003</v>
       </c>
@@ -2426,7 +2445,7 @@
         <v>11.964</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="23.4">
+    <row r="17" spans="1:39" ht="23" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>30.6</v>
       </c>
@@ -2462,7 +2481,7 @@
         <v>13.526</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="23.4">
+    <row r="18" spans="1:39" ht="23" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>32.11</v>
       </c>
@@ -2474,15 +2493,15 @@
       </c>
       <c r="D18" s="27">
         <f t="shared" si="3"/>
-        <v>32.165936928530179</v>
+        <v>32.165936928530186</v>
       </c>
       <c r="E18" s="28">
         <f t="shared" si="4"/>
-        <v>-5.5936928530179841E-2</v>
+        <v>-5.5936928530186947E-2</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="5"/>
-        <v>8.8868822718154716E-3</v>
+        <v>8.8868822718168108E-3</v>
       </c>
       <c r="H18" s="51">
         <v>32.11</v>
@@ -2498,7 +2517,7 @@
         <v>12.656000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="23.4">
+    <row r="19" spans="1:39" ht="23" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>32.86</v>
       </c>
@@ -2510,15 +2529,15 @@
       </c>
       <c r="D19" s="27">
         <f t="shared" si="3"/>
-        <v>32.332906096522535</v>
+        <v>32.332906096522542</v>
       </c>
       <c r="E19" s="28">
         <f t="shared" si="4"/>
-        <v>0.52709390347746421</v>
+        <v>0.5270939034774571</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="5"/>
-        <v>6.8246039711419917E-2</v>
+        <v>6.8246039711423623E-2</v>
       </c>
       <c r="H19" s="51">
         <v>32.86</v>
@@ -2534,7 +2553,7 @@
         <v>14.119</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="23.4">
+    <row r="20" spans="1:39" ht="23" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>35.42</v>
       </c>
@@ -2570,7 +2589,7 @@
         <v>16.690999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="24" thickBot="1">
+    <row r="21" spans="1:39" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>31.25</v>
       </c>
@@ -2582,15 +2601,15 @@
       </c>
       <c r="D21" s="27">
         <f t="shared" si="3"/>
-        <v>32.809890055899025</v>
+        <v>32.809890055899032</v>
       </c>
       <c r="E21" s="28">
         <f t="shared" si="4"/>
-        <v>-1.5598900558990252</v>
+        <v>-1.5598900558990323</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="5"/>
-        <v>0.54497377240971212</v>
+        <v>0.54497377240972267</v>
       </c>
       <c r="H21" s="52">
         <v>31.25</v>
@@ -2606,7 +2625,7 @@
         <v>14.571</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="43.2" thickTop="1">
+    <row r="22" spans="1:39" ht="44" thickTop="1" x14ac:dyDescent="0.35">
       <c r="O22" s="65" t="s">
         <v>46</v>
       </c>
@@ -2638,8 +2657,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="21.6" thickBot="1"/>
-    <row r="24" spans="1:39" ht="25.2" thickTop="1">
+    <row r="23" spans="1:39" ht="22" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:39" ht="26" thickTop="1" x14ac:dyDescent="0.35">
       <c r="I24" s="53">
         <v>1</v>
       </c>
@@ -2718,7 +2737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="24.6">
+    <row r="25" spans="1:39" ht="25" x14ac:dyDescent="0.35">
       <c r="I25" s="69">
         <v>58.8</v>
       </c>
@@ -2793,7 +2812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="25.2" thickBot="1">
+    <row r="26" spans="1:39" ht="26" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I26" s="71">
         <v>7.1070000000000002</v>
       </c>
@@ -2868,7 +2887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="24" thickTop="1">
+    <row r="27" spans="1:39" ht="24" thickTop="1" x14ac:dyDescent="0.3">
       <c r="V27" s="56">
         <v>1</v>
       </c>
@@ -2879,7 +2898,7 @@
         <v>9.2080000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="23.4">
+    <row r="28" spans="1:39" ht="23" x14ac:dyDescent="0.3">
       <c r="V28" s="56">
         <v>1</v>
       </c>
@@ -2890,7 +2909,7 @@
         <v>14.792</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="23.4">
+    <row r="29" spans="1:39" ht="23" x14ac:dyDescent="0.3">
       <c r="V29" s="56">
         <v>1</v>
       </c>
@@ -2901,7 +2920,7 @@
         <v>14.564</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="23.4">
+    <row r="30" spans="1:39" ht="23" x14ac:dyDescent="0.3">
       <c r="V30" s="56">
         <v>1</v>
       </c>
@@ -2912,7 +2931,7 @@
         <v>11.964</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="23.4">
+    <row r="31" spans="1:39" ht="23" x14ac:dyDescent="0.3">
       <c r="V31" s="56">
         <v>1</v>
       </c>
@@ -2923,7 +2942,7 @@
         <v>13.526</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="23.4">
+    <row r="32" spans="1:39" ht="23" x14ac:dyDescent="0.3">
       <c r="V32" s="56">
         <v>1</v>
       </c>
@@ -2934,7 +2953,7 @@
         <v>12.656000000000001</v>
       </c>
     </row>
-    <row r="33" spans="22:24" ht="23.4">
+    <row r="33" spans="22:24" ht="23" x14ac:dyDescent="0.3">
       <c r="V33" s="56">
         <v>1</v>
       </c>
@@ -2945,7 +2964,7 @@
         <v>14.119</v>
       </c>
     </row>
-    <row r="34" spans="22:24" ht="23.4">
+    <row r="34" spans="22:24" ht="23" x14ac:dyDescent="0.3">
       <c r="V34" s="56">
         <v>1</v>
       </c>
@@ -2956,7 +2975,7 @@
         <v>16.690999999999999</v>
       </c>
     </row>
-    <row r="35" spans="22:24" ht="24" thickBot="1">
+    <row r="35" spans="22:24" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V35" s="59">
         <v>1</v>
       </c>
@@ -2967,7 +2986,7 @@
         <v>14.571</v>
       </c>
     </row>
-    <row r="36" spans="22:24" ht="21.6" thickTop="1"/>
+    <row r="36" spans="22:24" ht="22" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2975,22 +2994,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -3004,7 +3023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -3026,7 +3045,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15">
+    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -3048,7 +3067,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15">
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -3070,7 +3089,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15">
+    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -3092,7 +3111,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15">
+    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -3114,7 +3133,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15">
+    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -3136,7 +3155,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15">
+    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -3158,7 +3177,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15">
+    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -3180,7 +3199,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15">
+    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -3202,7 +3221,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15">
+    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -3224,7 +3243,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15">
+    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -3246,7 +3265,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15">
+    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -3268,7 +3287,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15">
+    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
@@ -3290,7 +3309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15">
+    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -3312,7 +3331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15">
+    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
@@ -3334,7 +3353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15">
+    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -3356,7 +3375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15">
+    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
